--- a/src/Config/ReviewNotes.xlsx
+++ b/src/Config/ReviewNotes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="312">
   <si>
     <t>Topic</t>
   </si>
@@ -1394,33 +1394,57 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
